--- a/잔향환경 음성인식 실험 (reverb task).xlsx
+++ b/잔향환경 음성인식 실험 (reverb task).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minsik\Desktop\To_become_Real_Dr\Research_Diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C433A395-9FBC-4593-9F7D-AEFD0AD422B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7F22C-FB84-4FC2-9DAF-FB114280E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AE2544DC-8A6F-490D-9B49-F34ED1ECF876}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Reverb task 인식 성능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,11 +66,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>새로운 훈련데이터 / Online i-vector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 훈련데이터 / utt i-vector</t>
+    <t>새로운 훈련데이터 / Fullband T60 (1차원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 훈련데이터 / Subband T60 (40차원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 훈련데이터 / AWSSDR (40차원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 훈련데이터 / utt i-vector (100차원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 훈련데이터 / Online i-vector (100차원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewEval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 훈련데이터 /Subband T60 (100차원)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,6 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +157,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -144,13 +173,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -159,13 +188,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -174,43 +203,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -222,10 +221,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -234,7 +233,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -252,7 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -264,25 +308,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -292,23 +321,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -323,65 +339,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,83 +750,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE931FF3-D4CB-4007-9E54-7D56BF159706}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>21.27</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>20.83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>16.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="2">
+        <v>17.21</v>
+      </c>
+      <c r="C4" s="15">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>16.77</v>
+      </c>
+      <c r="C5" s="17">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="C6" s="19">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="21">
+        <v>17.28</v>
+      </c>
+      <c r="C7" s="22">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
-        <v>17.79</v>
-      </c>
-      <c r="C5" s="16">
-        <v>16.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="B8" s="21">
+        <v>17.57</v>
+      </c>
+      <c r="C8" s="22">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18">
-        <v>27.37</v>
-      </c>
-      <c r="C6" s="19">
-        <v>27.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B9" s="24">
+        <v>18.05</v>
+      </c>
+      <c r="C9" s="25">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="31">
+        <f>AVERAGE(C14:E14)</f>
+        <v>11.496666666666668</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="D14">
+        <v>11.26</v>
+      </c>
+      <c r="E14">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="28">
+        <f t="shared" ref="B15:B17" si="0">AVERAGE(C15:E15)</f>
+        <v>12.273333333333333</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12.98</v>
+      </c>
+      <c r="D15">
+        <v>11.71</v>
+      </c>
+      <c r="E15">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="28">
+        <f>AVERAGE(C17:E17)</f>
+        <v>13.493333333333332</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14.46</v>
+      </c>
+      <c r="D16">
+        <v>13.73</v>
+      </c>
+      <c r="E16">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="29">
+        <f>AVERAGE(C16:E16)</f>
+        <v>13.93</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="D17">
+        <v>13.17</v>
+      </c>
+      <c r="E17">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
